--- a/Stats_New.xlsx
+++ b/Stats_New.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
   <si>
     <t>Scenario</t>
   </si>
@@ -90,9 +90,6 @@
     <t>1 T / 6 C</t>
   </si>
   <si>
-    <t xml:space="preserve">This is about as far as we can go. After this, things just don't work well and programs lag and I think are just being overwhemed by the speed at which packets are coming in. </t>
-  </si>
-  <si>
     <t>Note: These numbers are gathered after 5 minutes.</t>
   </si>
   <si>
@@ -112,6 +109,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Note: 10 ms was too high here, so we backed it off to 100ms</t>
+  </si>
+  <si>
+    <t>C 7</t>
   </si>
 </sst>
 </file>
@@ -173,8 +176,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -201,7 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -211,6 +218,8 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -220,6 +229,8 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -549,11 +560,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -574,7 +585,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -607,13 +618,13 @@
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>5</v>
@@ -622,10 +633,10 @@
         <v>6</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1">
@@ -638,10 +649,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>8.7800000000000003E-2</v>
@@ -762,15 +773,15 @@
         <v>11526</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" ref="J10:J39" si="0">F11/E11</f>
+        <f t="shared" ref="J11:J39" si="0">F11/E11</f>
         <v>0.26170744693164194</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" ref="K10:K39" si="1">G11/E11</f>
+        <f t="shared" ref="K11:K39" si="1">G11/E11</f>
         <v>0.73829255306835806</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" ref="L10:L39" si="2">H11/G11</f>
+        <f t="shared" ref="L11:L39" si="2">H11/G11</f>
         <v>0</v>
       </c>
       <c r="M11" s="2">
@@ -972,49 +983,98 @@
       <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="J17" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K17" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L17" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M17" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="B17">
+        <v>1.14365E-3</v>
+      </c>
+      <c r="C17">
+        <v>1.5509E-3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.2263</v>
+      </c>
+      <c r="E17">
+        <v>227921</v>
+      </c>
+      <c r="F17">
+        <v>34361</v>
+      </c>
+      <c r="G17">
+        <v>193560</v>
+      </c>
+      <c r="H17">
+        <v>3496</v>
+      </c>
+      <c r="I17">
+        <v>50813</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15075837680599857</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.84924162319400143</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8061582971688365E-2</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="3"/>
+        <v>0.26251808224839845</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="J18" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K18" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L18" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M18" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="B18">
+        <v>1.5419299999999999E-3</v>
+      </c>
+      <c r="C18">
+        <v>2.0166799999999999E-3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.1111</v>
+      </c>
+      <c r="E18">
+        <v>248058</v>
+      </c>
+      <c r="F18">
+        <v>19955</v>
+      </c>
+      <c r="G18">
+        <v>228103</v>
+      </c>
+      <c r="H18">
+        <v>4577</v>
+      </c>
+      <c r="I18">
+        <v>61090</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="0"/>
+        <v>8.044489595175322E-2</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.91955510404824681</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0065496727355626E-2</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="3"/>
+        <v>0.26781760871185384</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D19" s="4"/>
       <c r="J19" s="2"/>
@@ -1026,110 +1086,225 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="J20" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="B20">
+        <v>3.6668600000000003E-2</v>
+      </c>
+      <c r="C20">
+        <v>3.7277850000000001E-2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.38719999999999999</v>
+      </c>
+      <c r="E20">
+        <v>40297</v>
+      </c>
+      <c r="F20">
+        <v>4229</v>
+      </c>
+      <c r="G20">
+        <v>36068</v>
+      </c>
+      <c r="H20">
+        <v>562</v>
+      </c>
+      <c r="I20">
+        <v>9638</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10494577760131027</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8950542223986897</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5581679050682045E-2</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="3"/>
+        <v>0.26721747809692803</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="J21" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K21" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L21" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M21" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="B21">
+        <v>5.9065199999999998E-2</v>
+      </c>
+      <c r="C21">
+        <v>6.0315599999999997E-2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.1265</v>
+      </c>
+      <c r="E21">
+        <v>47221</v>
+      </c>
+      <c r="F21">
+        <v>1855</v>
+      </c>
+      <c r="G21">
+        <v>45366</v>
+      </c>
+      <c r="H21">
+        <v>612</v>
+      </c>
+      <c r="I21">
+        <v>12207</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="0"/>
+        <v>3.9283369687215436E-2</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.96071663031278454</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3490279063615924E-2</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="3"/>
+        <v>0.26907816426398623</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="J22" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K22" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L22" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M22" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.18149999999999999</v>
+      </c>
+      <c r="E22">
+        <v>45206</v>
+      </c>
+      <c r="F22">
+        <v>2286</v>
+      </c>
+      <c r="G22">
+        <v>42930</v>
+      </c>
+      <c r="H22">
+        <v>662</v>
+      </c>
+      <c r="I22">
+        <v>11386</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>5.056850860505243E-2</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.94965270096889798</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5420451898439319E-2</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="3"/>
+        <v>0.26522245515956205</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="J23" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L23" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M23" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="B23">
+        <v>3.6501800000000001E-2</v>
+      </c>
+      <c r="C23">
+        <v>3.6501800000000001E-2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="E23">
+        <v>43403</v>
+      </c>
+      <c r="F23">
+        <v>3883</v>
+      </c>
+      <c r="G23">
+        <v>39520</v>
+      </c>
+      <c r="H23">
+        <v>336</v>
+      </c>
+      <c r="I23">
+        <v>10688</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="0"/>
+        <v>8.946386194502684E-2</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.91053613805497313</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="2"/>
+        <v>8.5020242914979755E-3</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="3"/>
+        <v>0.27044534412955468</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="J24" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K24" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L24" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M24" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.1719</v>
+      </c>
+      <c r="E24">
+        <v>49642</v>
+      </c>
+      <c r="F24">
+        <v>2211</v>
+      </c>
+      <c r="G24">
+        <v>47431</v>
+      </c>
+      <c r="H24">
+        <v>727</v>
+      </c>
+      <c r="I24">
+        <v>12441</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4538898513355629E-2</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.95546110148664443</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5327528409689865E-2</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="3"/>
+        <v>0.26229681010309713</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="3" customFormat="1">
@@ -1146,132 +1321,270 @@
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="J26" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L26" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M26" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="B26">
+        <v>0.105839</v>
+      </c>
+      <c r="C26">
+        <v>0.107345</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.39950000000000002</v>
+      </c>
+      <c r="E26">
+        <v>36287</v>
+      </c>
+      <c r="F26">
+        <v>5884</v>
+      </c>
+      <c r="G26">
+        <v>30403</v>
+      </c>
+      <c r="H26">
+        <v>968</v>
+      </c>
+      <c r="I26">
+        <v>7620</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16215173478105108</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="1"/>
+        <v>0.83784826521894895</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="2"/>
+        <v>3.1838963260204585E-2</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="3"/>
+        <v>0.25063316120119727</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="J27" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K27" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L27" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="B27">
+        <v>0.14574000000000001</v>
+      </c>
+      <c r="C27">
+        <v>0.14862</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.31490000000000001</v>
+      </c>
+      <c r="E27">
+        <v>36633</v>
+      </c>
+      <c r="F27">
+        <v>5891</v>
+      </c>
+      <c r="G27">
+        <v>30742</v>
+      </c>
+      <c r="H27">
+        <v>838</v>
+      </c>
+      <c r="I27">
+        <v>7546</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16081129036660935</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="1"/>
+        <v>0.83918870963339065</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="2"/>
+        <v>2.725912432502765E-2</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="3"/>
+        <v>0.24546223407715828</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="J28" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K28" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L28" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="B28">
+        <v>0.17979000000000001</v>
+      </c>
+      <c r="C28">
+        <v>0.18902099999999999</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="E28">
+        <v>44687</v>
+      </c>
+      <c r="F28">
+        <v>4676</v>
+      </c>
+      <c r="G28">
+        <v>40011</v>
+      </c>
+      <c r="H28">
+        <v>1080</v>
+      </c>
+      <c r="I28">
+        <v>9637</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10463893302302683</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="1"/>
+        <v>0.89536106697697315</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" si="2"/>
+        <v>2.699257704131364E-2</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="3"/>
+        <v>0.24085876383994401</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="J29" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K29" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L29" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M29" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.26960000000000001</v>
+      </c>
+      <c r="E29">
+        <v>43323</v>
+      </c>
+      <c r="F29">
+        <v>4547</v>
+      </c>
+      <c r="G29">
+        <v>38776</v>
+      </c>
+      <c r="H29">
+        <v>1063</v>
+      </c>
+      <c r="I29">
+        <v>9387</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10495579715162846</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8950442028483715</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" si="2"/>
+        <v>2.7413864245925314E-2</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" si="3"/>
+        <v>0.24208273158654839</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="J30" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K30" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L30" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M30" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="B30">
+        <v>0.115005</v>
+      </c>
+      <c r="C30">
+        <v>0.108471</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.19350000000000001</v>
+      </c>
+      <c r="E30">
+        <v>46632</v>
+      </c>
+      <c r="F30">
+        <v>3824</v>
+      </c>
+      <c r="G30">
+        <v>42808</v>
+      </c>
+      <c r="H30">
+        <v>1085</v>
+      </c>
+      <c r="I30">
+        <v>10153</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="0"/>
+        <v>8.2003774232286844E-2</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="1"/>
+        <v>0.91799622576771311</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" si="2"/>
+        <v>2.5345729770136424E-2</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" si="3"/>
+        <v>0.237175294337507</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="J31" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K31" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L31" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M31" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="B31">
+        <v>0.19272</v>
+      </c>
+      <c r="C31">
+        <v>0.20850099999999999</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.3024</v>
+      </c>
+      <c r="E31">
+        <v>44480</v>
+      </c>
+      <c r="F31">
+        <v>4605</v>
+      </c>
+      <c r="G31">
+        <v>39875</v>
+      </c>
+      <c r="H31">
+        <v>1082</v>
+      </c>
+      <c r="I31">
+        <v>9596</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1035296762589928</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="1"/>
+        <v>0.89647032374100721</v>
+      </c>
+      <c r="L31" s="2">
+        <f t="shared" si="2"/>
+        <v>2.7134796238244514E-2</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" si="3"/>
+        <v>0.24065203761755485</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="3" customFormat="1">
@@ -1288,158 +1601,322 @@
       <c r="A33" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="J33" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K33" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L33" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M33" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="B33">
+        <v>0.201206</v>
+      </c>
+      <c r="C33">
+        <v>0.20352300000000001</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.4027</v>
+      </c>
+      <c r="E33">
+        <v>26020</v>
+      </c>
+      <c r="F33">
+        <v>4844</v>
+      </c>
+      <c r="G33">
+        <v>21176</v>
+      </c>
+      <c r="H33">
+        <v>1212</v>
+      </c>
+      <c r="I33">
+        <v>5199</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18616448885472714</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" si="1"/>
+        <v>0.81383551114527286</v>
+      </c>
+      <c r="L33" s="2">
+        <f t="shared" si="2"/>
+        <v>5.723460521344919E-2</v>
+      </c>
+      <c r="M33" s="2">
+        <f t="shared" si="3"/>
+        <v>0.24551378919531544</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="J34" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K34" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L34" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M34" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="B34">
+        <v>0.316689</v>
+      </c>
+      <c r="C34">
+        <v>0.32125799999999999</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="E34">
+        <v>35287</v>
+      </c>
+      <c r="F34">
+        <v>3590</v>
+      </c>
+      <c r="G34">
+        <v>31697</v>
+      </c>
+      <c r="H34">
+        <v>1665</v>
+      </c>
+      <c r="I34">
+        <v>7097</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10173718366537252</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" si="1"/>
+        <v>0.89826281633462746</v>
+      </c>
+      <c r="L34" s="2">
+        <f t="shared" si="2"/>
+        <v>5.2528630469760543E-2</v>
+      </c>
+      <c r="M34" s="2">
+        <f t="shared" si="3"/>
+        <v>0.22390131558191628</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="J35" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K35" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L35" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M35" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="B35">
+        <v>0.49959500000000001</v>
+      </c>
+      <c r="C35">
+        <v>0.55548699999999995</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.28370000000000001</v>
+      </c>
+      <c r="E35">
+        <v>31969</v>
+      </c>
+      <c r="F35">
+        <v>3450</v>
+      </c>
+      <c r="G35">
+        <v>28519</v>
+      </c>
+      <c r="H35">
+        <v>1366</v>
+      </c>
+      <c r="I35">
+        <v>6683</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10791704463699209</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" si="1"/>
+        <v>0.89208295536300797</v>
+      </c>
+      <c r="L35" s="2">
+        <f t="shared" si="2"/>
+        <v>4.7897892632981519E-2</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" si="3"/>
+        <v>0.23433500473368632</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="J36" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K36" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L36" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M36" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="B36">
+        <v>0.14201</v>
+      </c>
+      <c r="C36">
+        <v>0.147228</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.25430000000000003</v>
+      </c>
+      <c r="E36">
+        <v>36389</v>
+      </c>
+      <c r="F36">
+        <v>3020</v>
+      </c>
+      <c r="G36">
+        <v>33369</v>
+      </c>
+      <c r="H36">
+        <v>1533</v>
+      </c>
+      <c r="I36">
+        <v>7323</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="0"/>
+        <v>8.2992113001181672E-2</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="1"/>
+        <v>0.9170078869988183</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" si="2"/>
+        <v>4.5940843297671494E-2</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" si="3"/>
+        <v>0.21945518295423896</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="J37" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K37" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L37" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M37" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="B37">
+        <v>0.54125000000000001</v>
+      </c>
+      <c r="C37">
+        <v>0.59477599999999997</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.2276</v>
+      </c>
+      <c r="E37">
+        <v>38628</v>
+      </c>
+      <c r="F37">
+        <v>3365</v>
+      </c>
+      <c r="G37">
+        <v>35263</v>
+      </c>
+      <c r="H37">
+        <v>1660</v>
+      </c>
+      <c r="I37">
+        <v>7713</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="0"/>
+        <v>8.7112975044009527E-2</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="1"/>
+        <v>0.9128870249559905</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" si="2"/>
+        <v>4.7074837648526782E-2</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="3"/>
+        <v>0.21872784505005247</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="J38" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K38" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L38" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M38" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="B38">
+        <v>0.13164100000000001</v>
+      </c>
+      <c r="C38">
+        <v>0.14493</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.29289999999999999</v>
+      </c>
+      <c r="E38">
+        <v>29677</v>
+      </c>
+      <c r="F38">
+        <v>4865</v>
+      </c>
+      <c r="G38">
+        <v>24812</v>
+      </c>
+      <c r="H38">
+        <v>1371</v>
+      </c>
+      <c r="I38">
+        <v>5535</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16393166425177746</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="1"/>
+        <v>0.83606833574822248</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" si="2"/>
+        <v>5.5255521521844271E-2</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2230775431242947</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="J39" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K39" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L39" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M39" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="D40" s="2"/>
+      <c r="B39">
+        <v>0.33652700000000002</v>
+      </c>
+      <c r="C39">
+        <v>0.33783200000000002</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.47549999999999998</v>
+      </c>
+      <c r="E39">
+        <v>23706</v>
+      </c>
+      <c r="F39">
+        <v>5706</v>
+      </c>
+      <c r="G39">
+        <v>18000</v>
+      </c>
+      <c r="H39">
+        <v>1090</v>
+      </c>
+      <c r="I39">
+        <v>4161</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="0"/>
+        <v>0.24069855732725892</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="1"/>
+        <v>0.75930144267274113</v>
+      </c>
+      <c r="L39" s="2">
+        <f t="shared" si="2"/>
+        <v>6.0555555555555557E-2</v>
+      </c>
+      <c r="M39" s="2">
+        <f t="shared" si="3"/>
+        <v>0.23116666666666666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="3" customFormat="1">
+      <c r="A40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="4"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -1447,57 +1924,162 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
+      <c r="J41" s="2" t="e">
+        <f t="shared" ref="J41:J47" si="4">F41/E41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K41" s="2" t="e">
+        <f t="shared" ref="K41:K47" si="5">G41/E41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L41" s="2" t="e">
+        <f t="shared" ref="L41:L47" si="6">H41/G41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M41" s="2" t="e">
+        <f t="shared" ref="M41:M47" si="7">I41/G41</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="42" spans="1:13">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
       <c r="D42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
+      <c r="J42" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K42" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L42" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M42" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
       <c r="D43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
+      <c r="J43" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K43" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L43" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M43" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="44" spans="1:13">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
       <c r="D44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
+      <c r="J44" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K44" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L44" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M44" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="45" spans="1:13">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
       <c r="D45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
+      <c r="J45" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K45" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L45" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M45" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="46" spans="1:13">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
       <c r="D46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
+      <c r="J46" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K46" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L46" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M46" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="47" spans="1:13">
+      <c r="A47" t="s">
+        <v>19</v>
+      </c>
       <c r="D47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
+      <c r="J47" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K47" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L47" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M47" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>31</v>
+      </c>
       <c r="D48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
@@ -1547,7 +2129,6 @@
       <c r="M54" s="2"/>
     </row>
     <row r="55" spans="4:13">
-      <c r="D55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -1564,12 +2145,6 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
-    </row>
-    <row r="58" spans="4:13">
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Stats_New.xlsx
+++ b/Stats_New.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="13500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="39">
   <si>
     <t>Scenario</t>
   </si>
@@ -66,9 +66,6 @@
     <t>C 3</t>
   </si>
   <si>
-    <t>1 T / 4 C</t>
-  </si>
-  <si>
     <t>C 4</t>
   </si>
   <si>
@@ -81,18 +78,9 @@
     <t>C 6</t>
   </si>
   <si>
-    <t>The longer the sim takes the more RBA packets you will see. The time the sim takes is related to where every car starts, which is random. So not every sim will take the same amount of time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The programs are started in order of the Nodes and stopped in the same order. So the Truck is first to start and first to stop. </t>
-  </si>
-  <si>
     <t>1 T / 6 C</t>
   </si>
   <si>
-    <t>Note: These numbers are gathered after 5 minutes.</t>
-  </si>
-  <si>
     <t>Percent of valid packets rebraodcasted 2+ times</t>
   </si>
   <si>
@@ -108,20 +96,60 @@
     <t># of Valid Packets Rx</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Note: 10 ms was too high here, so we backed it off to 100ms</t>
-  </si>
-  <si>
-    <t>C 7</t>
+    <t>1 T / 4 C - 100ms</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Column9</t>
+  </si>
+  <si>
+    <t>Column10</t>
+  </si>
+  <si>
+    <t>Column11</t>
+  </si>
+  <si>
+    <t>Column12</t>
+  </si>
+  <si>
+    <t>Note: These numbers are gathered after 5 minutes of running the simulation.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -152,8 +180,15 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +198,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -176,66 +223,431 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="23">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+  <cellStyles count="34">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B5:M8" totalsRowCount="1" headerRowDxfId="17">
+  <autoFilter ref="B5:M7"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="Column1" totalsRowFunction="custom" totalsRowDxfId="0">
+      <totalsRowFormula>AVERAGE(Table1[Column1])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Column2" totalsRowFunction="custom" totalsRowDxfId="1">
+      <totalsRowFormula>AVERAGE(Table1[Column2])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Column3" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="2" dataCellStyle="Percent">
+      <totalsRowFormula>AVERAGE(Table1[Column3])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Column4" totalsRowFunction="custom" totalsRowDxfId="3">
+      <totalsRowFormula>AVERAGE(Table1[Column4])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Column5" totalsRowFunction="custom" totalsRowDxfId="4">
+      <totalsRowFormula>AVERAGE(Table1[Column5])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Column6" totalsRowFunction="custom" totalsRowDxfId="5">
+      <totalsRowFormula>AVERAGE(Table1[Column6])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" name="Column7" totalsRowFunction="custom" totalsRowDxfId="6">
+      <totalsRowFormula>AVERAGE(Table1[Column7])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" name="Column8" totalsRowFunction="custom" totalsRowDxfId="7">
+      <totalsRowFormula>AVERAGE(Table1[Column8])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" name="Column9" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="8" dataCellStyle="Percent">
+      <calculatedColumnFormula>F6/E6</calculatedColumnFormula>
+      <totalsRowFormula>AVERAGE(Table1[Column9])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" name="Column10" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="9" dataCellStyle="Percent">
+      <calculatedColumnFormula>G6/E6</calculatedColumnFormula>
+      <totalsRowFormula>AVERAGE(Table1[Column10])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="11" name="Column11" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="10" dataCellStyle="Percent">
+      <calculatedColumnFormula>H6/G6</calculatedColumnFormula>
+      <totalsRowFormula>AVERAGE(Table1[Column11])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="12" name="Column12" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Percent">
+      <calculatedColumnFormula>I6/G6</calculatedColumnFormula>
+      <totalsRowFormula>AVERAGE(Table1[Column12])</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -560,189 +972,298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="21.1640625" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="17.5" customWidth="1"/>
-    <col min="12" max="13" width="20.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="9" max="9" width="38.1640625" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" customWidth="1"/>
+    <col min="12" max="12" width="26.1640625" customWidth="1"/>
+    <col min="13" max="13" width="42.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+      <c r="M4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1">
-      <c r="A6" s="1" t="s">
+    <row r="5" spans="1:13" s="3" customFormat="1" ht="19" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="20" customHeight="1">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8.7800000000000003E-2</v>
+      </c>
+      <c r="E6">
+        <v>30389</v>
+      </c>
+      <c r="F6">
+        <v>10184</v>
+      </c>
+      <c r="G6">
+        <v>20205</v>
+      </c>
+      <c r="H6">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <f>F6/E6</f>
+        <v>0.33512126098259237</v>
+      </c>
+      <c r="K6" s="2">
+        <f>G6/E6</f>
+        <v>0.66487873901740757</v>
+      </c>
+      <c r="L6" s="2">
+        <f>H6/G6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <f>I6/G6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>2.7709700000000002E-3</v>
+      </c>
+      <c r="C7">
+        <v>2.7791299999999999E-3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8.6800000000000002E-2</v>
+      </c>
+      <c r="E7">
+        <v>25957</v>
+      </c>
+      <c r="F7">
+        <v>7713</v>
+      </c>
+      <c r="G7">
+        <v>18244</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <f>F7/E7</f>
+        <v>0.29714527873020763</v>
+      </c>
+      <c r="K7" s="2">
+        <f>G7/E7</f>
+        <v>0.70285472126979232</v>
+      </c>
+      <c r="L7" s="2">
+        <f>H7/G7</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <f>I7/G7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2">
-        <v>8.7800000000000003E-2</v>
-      </c>
-      <c r="E8">
-        <v>30389</v>
-      </c>
-      <c r="F8">
-        <v>10184</v>
-      </c>
-      <c r="G8">
-        <v>20205</v>
-      </c>
-      <c r="H8">
+      <c r="B8" s="5">
+        <f>AVERAGE(Table1[Column1])</f>
+        <v>2.7709700000000002E-3</v>
+      </c>
+      <c r="C8" s="5">
+        <f>AVERAGE(Table1[Column2])</f>
+        <v>2.7791299999999999E-3</v>
+      </c>
+      <c r="D8" s="9">
+        <f>AVERAGE(Table1[Column3])</f>
+        <v>8.7300000000000003E-2</v>
+      </c>
+      <c r="E8" s="5">
+        <f>AVERAGE(Table1[Column4])</f>
+        <v>28173</v>
+      </c>
+      <c r="F8" s="5">
+        <f>AVERAGE(Table1[Column5])</f>
+        <v>8948.5</v>
+      </c>
+      <c r="G8" s="5">
+        <f>AVERAGE(Table1[Column6])</f>
+        <v>19224.5</v>
+      </c>
+      <c r="H8" s="5">
+        <f>AVERAGE(Table1[Column7])</f>
         <v>0</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="5">
+        <f>AVERAGE(Table1[Column8])</f>
         <v>0</v>
       </c>
-      <c r="J8" s="2">
-        <f>F8/E8</f>
-        <v>0.33512126098259237</v>
-      </c>
-      <c r="K8" s="2">
-        <f>G8/E8</f>
-        <v>0.66487873901740757</v>
-      </c>
-      <c r="L8" s="2">
-        <f>H8/G8</f>
+      <c r="J8" s="9">
+        <f>AVERAGE(Table1[Column9])</f>
+        <v>0.3161332698564</v>
+      </c>
+      <c r="K8" s="9">
+        <f>AVERAGE(Table1[Column10])</f>
+        <v>0.68386673014359989</v>
+      </c>
+      <c r="L8" s="9">
+        <f>AVERAGE(Table1[Column11])</f>
         <v>0</v>
       </c>
-      <c r="M8" s="2">
-        <f>I8/G8</f>
+      <c r="M8" s="9">
+        <f>AVERAGE(Table1[Column12])</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>2.7709700000000002E-3</v>
-      </c>
-      <c r="C9">
-        <v>2.7791299999999999E-3</v>
-      </c>
-      <c r="D9" s="2">
-        <v>8.6800000000000002E-2</v>
-      </c>
-      <c r="E9">
-        <v>25957</v>
-      </c>
-      <c r="F9">
-        <v>7713</v>
-      </c>
-      <c r="G9">
-        <v>18244</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <f>F9/E9</f>
-        <v>0.29714527873020763</v>
-      </c>
-      <c r="K9" s="2">
-        <f>G9/E9</f>
-        <v>0.70285472126979232</v>
-      </c>
-      <c r="L9" s="2">
-        <f>H9/G9</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <f>I9/G9</f>
-        <v>0</v>
-      </c>
+      <c r="D9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" s="3" customFormat="1">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
@@ -773,19 +1294,19 @@
         <v>11526</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" ref="J11:J39" si="0">F11/E11</f>
+        <f t="shared" ref="J11:J47" si="0">F11/E11</f>
         <v>0.26170744693164194</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" ref="K11:K39" si="1">G11/E11</f>
+        <f t="shared" ref="K11:K47" si="1">G11/E11</f>
         <v>0.73829255306835806</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" ref="L11:L39" si="2">H11/G11</f>
+        <f t="shared" ref="L11:L47" si="2">H11/G11</f>
         <v>0</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" ref="M10:M39" si="3">I11/G11</f>
+        <f t="shared" ref="M11:M47" si="3">I11/G11</f>
         <v>0.18069512596610596</v>
       </c>
     </row>
@@ -879,1212 +1400,1419 @@
         <v>0.18839535093251644</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="3" customFormat="1">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:13">
+      <c r="B14" s="6">
+        <f>AVERAGE(B11:B13)</f>
+        <v>8.2318950000000012E-3</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" ref="C14:M14" si="4">AVERAGE(C11:C13)</f>
+        <v>8.5160433333333323E-3</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="4"/>
+        <v>0.1268878</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="4"/>
+        <v>81911</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="4"/>
+        <v>23164.666666666668</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="4"/>
+        <v>58746.333333333336</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="4"/>
+        <v>1247.6666666666667</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="4"/>
+        <v>9936</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" si="4"/>
+        <v>0.28199632262149299</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" si="4"/>
+        <v>0.71800367737850701</v>
+      </c>
+      <c r="L14" s="7">
+        <f t="shared" si="4"/>
+        <v>2.2185094687528276E-2</v>
+      </c>
+      <c r="M14" s="7">
+        <f t="shared" si="4"/>
+        <v>0.16883664456060324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="D15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" s="3" customFormat="1">
+      <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B15">
+      <c r="B17">
         <v>1.6958399999999998E-2</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <v>1.73688E-2</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D17" s="2">
         <v>0.2399</v>
       </c>
-      <c r="E15">
+      <c r="E17">
         <v>231958</v>
       </c>
-      <c r="F15">
+      <c r="F17">
         <v>30813</v>
       </c>
-      <c r="G15">
+      <c r="G17">
         <v>201145</v>
       </c>
-      <c r="H15">
+      <c r="H17">
         <v>982</v>
       </c>
-      <c r="I15">
+      <c r="I17">
         <v>53030</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J17" s="2">
         <f t="shared" si="0"/>
         <v>0.13283870355840283</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K17" s="2">
         <f t="shared" si="1"/>
         <v>0.86716129644159723</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L17" s="2">
         <f t="shared" si="2"/>
         <v>4.8820502622486262E-3</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M17" s="2">
         <f t="shared" si="3"/>
         <v>0.26364065723731639</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="B16">
+      <c r="B18">
         <v>2.1590400000000001E-3</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>2.6620599999999999E-3</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D18" s="2">
         <v>9.8100000000000007E-2</v>
       </c>
-      <c r="E16">
+      <c r="E18">
         <v>239339</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <v>19854</v>
       </c>
-      <c r="G16">
+      <c r="G18">
         <v>219485</v>
       </c>
-      <c r="H16">
+      <c r="H18">
         <v>5594</v>
       </c>
-      <c r="I16">
+      <c r="I18">
         <v>57964</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J18" s="2">
         <f t="shared" si="0"/>
         <v>8.2953467675556433E-2</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K18" s="2">
         <f t="shared" si="1"/>
         <v>0.91704653232444355</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L18" s="2">
         <f t="shared" si="2"/>
         <v>2.5486935325876484E-2</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M18" s="2">
         <f t="shared" si="3"/>
         <v>0.26409094015536372</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
         <v>12</v>
       </c>
-      <c r="B17">
+      <c r="B19">
         <v>1.14365E-3</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>1.5509E-3</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D19" s="2">
         <v>0.2263</v>
       </c>
-      <c r="E17">
+      <c r="E19">
         <v>227921</v>
       </c>
-      <c r="F17">
+      <c r="F19">
         <v>34361</v>
       </c>
-      <c r="G17">
+      <c r="G19">
         <v>193560</v>
       </c>
-      <c r="H17">
+      <c r="H19">
         <v>3496</v>
       </c>
-      <c r="I17">
+      <c r="I19">
         <v>50813</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J19" s="2">
         <f t="shared" si="0"/>
         <v>0.15075837680599857</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K19" s="2">
         <f t="shared" si="1"/>
         <v>0.84924162319400143</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L19" s="2">
         <f t="shared" si="2"/>
         <v>1.8061582971688365E-2</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M19" s="2">
         <f t="shared" si="3"/>
         <v>0.26251808224839845</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B18">
+      <c r="B20">
         <v>1.5419299999999999E-3</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>2.0166799999999999E-3</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D20" s="2">
         <v>0.1111</v>
       </c>
-      <c r="E18">
+      <c r="E20">
         <v>248058</v>
       </c>
-      <c r="F18">
+      <c r="F20">
         <v>19955</v>
       </c>
-      <c r="G18">
+      <c r="G20">
         <v>228103</v>
       </c>
-      <c r="H18">
+      <c r="H20">
         <v>4577</v>
       </c>
-      <c r="I18">
+      <c r="I20">
         <v>61090</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J20" s="2">
         <f t="shared" si="0"/>
         <v>8.044489595175322E-2</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K20" s="2">
         <f t="shared" si="1"/>
         <v>0.91955510404824681</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L20" s="2">
         <f t="shared" si="2"/>
         <v>2.0065496727355626E-2</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M20" s="2">
         <f t="shared" si="3"/>
         <v>0.26781760871185384</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="3" customFormat="1">
-      <c r="A19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
+    <row r="21" spans="1:13">
+      <c r="B21" s="6">
+        <f>AVERAGE(B17:B20)</f>
+        <v>5.4507549999999998E-3</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" ref="C21:M21" si="5">AVERAGE(C17:C20)</f>
+        <v>5.8996100000000004E-3</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="5"/>
+        <v>0.16885</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="5"/>
+        <v>236819</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="5"/>
+        <v>26245.75</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="5"/>
+        <v>210573.25</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="5"/>
+        <v>3662.25</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" si="5"/>
+        <v>55724.25</v>
+      </c>
+      <c r="J21" s="7">
+        <f t="shared" si="5"/>
+        <v>0.11174886099792777</v>
+      </c>
+      <c r="K21" s="7">
+        <f t="shared" si="5"/>
+        <v>0.88825113900207231</v>
+      </c>
+      <c r="L21" s="7">
+        <f t="shared" si="5"/>
+        <v>1.7124016321792276E-2</v>
+      </c>
+      <c r="M21" s="7">
+        <f t="shared" si="5"/>
+        <v>0.26451682208823313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="D22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" s="3" customFormat="1">
+      <c r="A23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="B20">
+      <c r="B24">
         <v>3.6668600000000003E-2</v>
       </c>
-      <c r="C20">
+      <c r="C24">
         <v>3.7277850000000001E-2</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D24" s="2">
         <v>0.38719999999999999</v>
       </c>
-      <c r="E20">
+      <c r="E24">
         <v>40297</v>
       </c>
-      <c r="F20">
+      <c r="F24">
         <v>4229</v>
       </c>
-      <c r="G20">
+      <c r="G24">
         <v>36068</v>
       </c>
-      <c r="H20">
+      <c r="H24">
         <v>562</v>
       </c>
-      <c r="I20">
+      <c r="I24">
         <v>9638</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J24" s="2">
         <f t="shared" si="0"/>
         <v>0.10494577760131027</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K24" s="2">
         <f t="shared" si="1"/>
         <v>0.8950542223986897</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L24" s="2">
         <f t="shared" si="2"/>
         <v>1.5581679050682045E-2</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M24" s="2">
         <f t="shared" si="3"/>
         <v>0.26721747809692803</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" t="s">
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="B21">
+      <c r="B25">
         <v>5.9065199999999998E-2</v>
       </c>
-      <c r="C21">
+      <c r="C25">
         <v>6.0315599999999997E-2</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D25" s="2">
         <v>0.1265</v>
       </c>
-      <c r="E21">
+      <c r="E25">
         <v>47221</v>
       </c>
-      <c r="F21">
+      <c r="F25">
         <v>1855</v>
       </c>
-      <c r="G21">
+      <c r="G25">
         <v>45366</v>
       </c>
-      <c r="H21">
+      <c r="H25">
         <v>612</v>
       </c>
-      <c r="I21">
+      <c r="I25">
         <v>12207</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J25" s="2">
         <f t="shared" si="0"/>
         <v>3.9283369687215436E-2</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K25" s="2">
         <f t="shared" si="1"/>
         <v>0.96071663031278454</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L25" s="2">
         <f t="shared" si="2"/>
         <v>1.3490279063615924E-2</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M25" s="2">
         <f t="shared" si="3"/>
         <v>0.26907816426398623</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
-      <c r="A22" t="s">
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
         <v>12</v>
       </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="D26" s="2">
         <v>0.18149999999999999</v>
       </c>
-      <c r="E22">
+      <c r="E26">
         <v>45206</v>
       </c>
-      <c r="F22">
+      <c r="F26">
         <v>2286</v>
       </c>
-      <c r="G22">
+      <c r="G26">
         <v>42930</v>
       </c>
-      <c r="H22">
+      <c r="H26">
         <v>662</v>
       </c>
-      <c r="I22">
+      <c r="I26">
         <v>11386</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J26" s="2">
         <f t="shared" si="0"/>
         <v>5.056850860505243E-2</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K26" s="2">
         <f t="shared" si="1"/>
         <v>0.94965270096889798</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L26" s="2">
         <f t="shared" si="2"/>
         <v>1.5420451898439319E-2</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M26" s="2">
         <f t="shared" si="3"/>
         <v>0.26522245515956205</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" t="s">
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
         <v>14</v>
       </c>
-      <c r="B23">
+      <c r="B27">
         <v>3.6501800000000001E-2</v>
       </c>
-      <c r="C23">
+      <c r="C27">
         <v>3.6501800000000001E-2</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D27" s="2">
         <v>0.35499999999999998</v>
       </c>
-      <c r="E23">
+      <c r="E27">
         <v>43403</v>
       </c>
-      <c r="F23">
+      <c r="F27">
         <v>3883</v>
       </c>
-      <c r="G23">
+      <c r="G27">
         <v>39520</v>
       </c>
-      <c r="H23">
+      <c r="H27">
         <v>336</v>
       </c>
-      <c r="I23">
+      <c r="I27">
         <v>10688</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J27" s="2">
         <f t="shared" si="0"/>
         <v>8.946386194502684E-2</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K27" s="2">
         <f t="shared" si="1"/>
         <v>0.91053613805497313</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L27" s="2">
         <f t="shared" si="2"/>
         <v>8.5020242914979755E-3</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M27" s="2">
         <f t="shared" si="3"/>
         <v>0.27044534412955468</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="2">
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="2">
         <v>0.1719</v>
       </c>
-      <c r="E24">
+      <c r="E28">
         <v>49642</v>
       </c>
-      <c r="F24">
+      <c r="F28">
         <v>2211</v>
       </c>
-      <c r="G24">
+      <c r="G28">
         <v>47431</v>
       </c>
-      <c r="H24">
+      <c r="H28">
         <v>727</v>
       </c>
-      <c r="I24">
+      <c r="I28">
         <v>12441</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J28" s="2">
         <f t="shared" si="0"/>
         <v>4.4538898513355629E-2</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K28" s="2">
         <f t="shared" si="1"/>
         <v>0.95546110148664443</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L28" s="2">
         <f t="shared" si="2"/>
         <v>1.5327528409689865E-2</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M28" s="2">
         <f t="shared" si="3"/>
         <v>0.26229681010309713</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="3" customFormat="1">
-      <c r="A25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" t="s">
+    <row r="29" spans="1:13">
+      <c r="B29" s="6">
+        <f>AVERAGE(B24:B28)</f>
+        <v>4.4078533333333336E-2</v>
+      </c>
+      <c r="C29" s="6">
+        <f t="shared" ref="C29:M29" si="6">AVERAGE(C24:C28)</f>
+        <v>4.4698416666666664E-2</v>
+      </c>
+      <c r="D29" s="7">
+        <f t="shared" si="6"/>
+        <v>0.24442</v>
+      </c>
+      <c r="E29" s="8">
+        <f t="shared" si="6"/>
+        <v>45153.8</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="6"/>
+        <v>2892.8</v>
+      </c>
+      <c r="G29" s="8">
+        <f t="shared" si="6"/>
+        <v>42263</v>
+      </c>
+      <c r="H29" s="8">
+        <f t="shared" si="6"/>
+        <v>579.79999999999995</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" si="6"/>
+        <v>11272</v>
+      </c>
+      <c r="J29" s="7">
+        <f t="shared" si="6"/>
+        <v>6.5760083270392122E-2</v>
+      </c>
+      <c r="K29" s="7">
+        <f t="shared" si="6"/>
+        <v>0.93428415864439796</v>
+      </c>
+      <c r="L29" s="7">
+        <f t="shared" si="6"/>
+        <v>1.3664392542785026E-2</v>
+      </c>
+      <c r="M29" s="7">
+        <f t="shared" si="6"/>
+        <v>0.26685205035062565</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="D30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" s="3" customFormat="1">
+      <c r="A31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
         <v>9</v>
       </c>
-      <c r="B26">
+      <c r="B32">
         <v>0.105839</v>
       </c>
-      <c r="C26">
+      <c r="C32">
         <v>0.107345</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D32" s="2">
         <v>0.39950000000000002</v>
       </c>
-      <c r="E26">
+      <c r="E32">
         <v>36287</v>
       </c>
-      <c r="F26">
+      <c r="F32">
         <v>5884</v>
       </c>
-      <c r="G26">
+      <c r="G32">
         <v>30403</v>
       </c>
-      <c r="H26">
+      <c r="H32">
         <v>968</v>
       </c>
-      <c r="I26">
+      <c r="I32">
         <v>7620</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J32" s="2">
         <f t="shared" si="0"/>
         <v>0.16215173478105108</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K32" s="2">
         <f t="shared" si="1"/>
         <v>0.83784826521894895</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L32" s="2">
         <f t="shared" si="2"/>
         <v>3.1838963260204585E-2</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M32" s="2">
         <f t="shared" si="3"/>
         <v>0.25063316120119727</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
-      <c r="A27" t="s">
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
         <v>10</v>
       </c>
-      <c r="B27">
+      <c r="B33">
         <v>0.14574000000000001</v>
       </c>
-      <c r="C27">
+      <c r="C33">
         <v>0.14862</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D33" s="2">
         <v>0.31490000000000001</v>
       </c>
-      <c r="E27">
+      <c r="E33">
         <v>36633</v>
       </c>
-      <c r="F27">
+      <c r="F33">
         <v>5891</v>
       </c>
-      <c r="G27">
+      <c r="G33">
         <v>30742</v>
       </c>
-      <c r="H27">
+      <c r="H33">
         <v>838</v>
       </c>
-      <c r="I27">
+      <c r="I33">
         <v>7546</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J33" s="2">
         <f t="shared" si="0"/>
         <v>0.16081129036660935</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K33" s="2">
         <f t="shared" si="1"/>
         <v>0.83918870963339065</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L33" s="2">
         <f t="shared" si="2"/>
         <v>2.725912432502765E-2</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M33" s="2">
         <f t="shared" si="3"/>
         <v>0.24546223407715828</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
-      <c r="A28" t="s">
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
         <v>12</v>
       </c>
-      <c r="B28">
+      <c r="B34">
         <v>0.17979000000000001</v>
       </c>
-      <c r="C28">
+      <c r="C34">
         <v>0.18902099999999999</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D34" s="2">
         <v>0.17799999999999999</v>
       </c>
-      <c r="E28">
+      <c r="E34">
         <v>44687</v>
       </c>
-      <c r="F28">
+      <c r="F34">
         <v>4676</v>
       </c>
-      <c r="G28">
+      <c r="G34">
         <v>40011</v>
       </c>
-      <c r="H28">
+      <c r="H34">
         <v>1080</v>
       </c>
-      <c r="I28">
+      <c r="I34">
         <v>9637</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J34" s="2">
         <f t="shared" si="0"/>
         <v>0.10463893302302683</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K34" s="2">
         <f t="shared" si="1"/>
         <v>0.89536106697697315</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L34" s="2">
         <f t="shared" si="2"/>
         <v>2.699257704131364E-2</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M34" s="2">
         <f t="shared" si="3"/>
         <v>0.24085876383994401</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
+    <row r="35" spans="1:13">
+      <c r="A35" t="s">
         <v>14</v>
       </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="D35" s="2">
         <v>0.26960000000000001</v>
       </c>
-      <c r="E29">
+      <c r="E35">
         <v>43323</v>
       </c>
-      <c r="F29">
+      <c r="F35">
         <v>4547</v>
       </c>
-      <c r="G29">
+      <c r="G35">
         <v>38776</v>
       </c>
-      <c r="H29">
+      <c r="H35">
         <v>1063</v>
       </c>
-      <c r="I29">
+      <c r="I35">
         <v>9387</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J35" s="2">
         <f t="shared" si="0"/>
         <v>0.10495579715162846</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K35" s="2">
         <f t="shared" si="1"/>
         <v>0.8950442028483715</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L35" s="2">
         <f t="shared" si="2"/>
         <v>2.7413864245925314E-2</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M35" s="2">
         <f t="shared" si="3"/>
         <v>0.24208273158654839</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30">
+    <row r="36" spans="1:13">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36">
         <v>0.115005</v>
       </c>
-      <c r="C30">
+      <c r="C36">
         <v>0.108471</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D36" s="2">
         <v>0.19350000000000001</v>
       </c>
-      <c r="E30">
+      <c r="E36">
         <v>46632</v>
       </c>
-      <c r="F30">
+      <c r="F36">
         <v>3824</v>
       </c>
-      <c r="G30">
+      <c r="G36">
         <v>42808</v>
       </c>
-      <c r="H30">
+      <c r="H36">
         <v>1085</v>
       </c>
-      <c r="I30">
+      <c r="I36">
         <v>10153</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J36" s="2">
         <f t="shared" si="0"/>
         <v>8.2003774232286844E-2</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K36" s="2">
         <f t="shared" si="1"/>
         <v>0.91799622576771311</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L36" s="2">
         <f t="shared" si="2"/>
         <v>2.5345729770136424E-2</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M36" s="2">
         <f t="shared" si="3"/>
         <v>0.237175294337507</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
-      <c r="A31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31">
+    <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37">
         <v>0.19272</v>
       </c>
-      <c r="C31">
+      <c r="C37">
         <v>0.20850099999999999</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D37" s="2">
         <v>0.3024</v>
       </c>
-      <c r="E31">
+      <c r="E37">
         <v>44480</v>
       </c>
-      <c r="F31">
+      <c r="F37">
         <v>4605</v>
       </c>
-      <c r="G31">
+      <c r="G37">
         <v>39875</v>
       </c>
-      <c r="H31">
+      <c r="H37">
         <v>1082</v>
       </c>
-      <c r="I31">
+      <c r="I37">
         <v>9596</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J37" s="2">
         <f t="shared" si="0"/>
         <v>0.1035296762589928</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K37" s="2">
         <f t="shared" si="1"/>
         <v>0.89647032374100721</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L37" s="2">
         <f t="shared" si="2"/>
         <v>2.7134796238244514E-2</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M37" s="2">
         <f t="shared" si="3"/>
         <v>0.24065203761755485</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="3" customFormat="1">
-      <c r="A32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33">
-        <v>0.201206</v>
-      </c>
-      <c r="C33">
-        <v>0.20352300000000001</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0.4027</v>
-      </c>
-      <c r="E33">
-        <v>26020</v>
-      </c>
-      <c r="F33">
-        <v>4844</v>
-      </c>
-      <c r="G33">
-        <v>21176</v>
-      </c>
-      <c r="H33">
-        <v>1212</v>
-      </c>
-      <c r="I33">
-        <v>5199</v>
-      </c>
-      <c r="J33" s="2">
-        <f t="shared" si="0"/>
-        <v>0.18616448885472714</v>
-      </c>
-      <c r="K33" s="2">
-        <f t="shared" si="1"/>
-        <v>0.81383551114527286</v>
-      </c>
-      <c r="L33" s="2">
-        <f t="shared" si="2"/>
-        <v>5.723460521344919E-2</v>
-      </c>
-      <c r="M33" s="2">
-        <f t="shared" si="3"/>
-        <v>0.24551378919531544</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34">
-        <v>0.316689</v>
-      </c>
-      <c r="C34">
-        <v>0.32125799999999999</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="E34">
-        <v>35287</v>
-      </c>
-      <c r="F34">
-        <v>3590</v>
-      </c>
-      <c r="G34">
-        <v>31697</v>
-      </c>
-      <c r="H34">
-        <v>1665</v>
-      </c>
-      <c r="I34">
-        <v>7097</v>
-      </c>
-      <c r="J34" s="2">
-        <f t="shared" si="0"/>
-        <v>0.10173718366537252</v>
-      </c>
-      <c r="K34" s="2">
-        <f t="shared" si="1"/>
-        <v>0.89826281633462746</v>
-      </c>
-      <c r="L34" s="2">
-        <f t="shared" si="2"/>
-        <v>5.2528630469760543E-2</v>
-      </c>
-      <c r="M34" s="2">
-        <f t="shared" si="3"/>
-        <v>0.22390131558191628</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35">
-        <v>0.49959500000000001</v>
-      </c>
-      <c r="C35">
-        <v>0.55548699999999995</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0.28370000000000001</v>
-      </c>
-      <c r="E35">
-        <v>31969</v>
-      </c>
-      <c r="F35">
-        <v>3450</v>
-      </c>
-      <c r="G35">
-        <v>28519</v>
-      </c>
-      <c r="H35">
-        <v>1366</v>
-      </c>
-      <c r="I35">
-        <v>6683</v>
-      </c>
-      <c r="J35" s="2">
-        <f t="shared" si="0"/>
-        <v>0.10791704463699209</v>
-      </c>
-      <c r="K35" s="2">
-        <f t="shared" si="1"/>
-        <v>0.89208295536300797</v>
-      </c>
-      <c r="L35" s="2">
-        <f t="shared" si="2"/>
-        <v>4.7897892632981519E-2</v>
-      </c>
-      <c r="M35" s="2">
-        <f t="shared" si="3"/>
-        <v>0.23433500473368632</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36">
-        <v>0.14201</v>
-      </c>
-      <c r="C36">
-        <v>0.147228</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0.25430000000000003</v>
-      </c>
-      <c r="E36">
-        <v>36389</v>
-      </c>
-      <c r="F36">
-        <v>3020</v>
-      </c>
-      <c r="G36">
-        <v>33369</v>
-      </c>
-      <c r="H36">
-        <v>1533</v>
-      </c>
-      <c r="I36">
-        <v>7323</v>
-      </c>
-      <c r="J36" s="2">
-        <f t="shared" si="0"/>
-        <v>8.2992113001181672E-2</v>
-      </c>
-      <c r="K36" s="2">
-        <f t="shared" si="1"/>
-        <v>0.9170078869988183</v>
-      </c>
-      <c r="L36" s="2">
-        <f t="shared" si="2"/>
-        <v>4.5940843297671494E-2</v>
-      </c>
-      <c r="M36" s="2">
-        <f t="shared" si="3"/>
-        <v>0.21945518295423896</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37">
-        <v>0.54125000000000001</v>
-      </c>
-      <c r="C37">
-        <v>0.59477599999999997</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0.2276</v>
-      </c>
-      <c r="E37">
-        <v>38628</v>
-      </c>
-      <c r="F37">
-        <v>3365</v>
-      </c>
-      <c r="G37">
-        <v>35263</v>
-      </c>
-      <c r="H37">
-        <v>1660</v>
-      </c>
-      <c r="I37">
-        <v>7713</v>
-      </c>
-      <c r="J37" s="2">
-        <f t="shared" si="0"/>
-        <v>8.7112975044009527E-2</v>
-      </c>
-      <c r="K37" s="2">
-        <f t="shared" si="1"/>
-        <v>0.9128870249559905</v>
-      </c>
-      <c r="L37" s="2">
-        <f t="shared" si="2"/>
-        <v>4.7074837648526782E-2</v>
-      </c>
-      <c r="M37" s="2">
-        <f t="shared" si="3"/>
-        <v>0.21872784505005247</v>
-      </c>
-    </row>
     <row r="38" spans="1:13">
-      <c r="A38" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38">
-        <v>0.13164100000000001</v>
-      </c>
-      <c r="C38">
-        <v>0.14493</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0.29289999999999999</v>
-      </c>
-      <c r="E38">
-        <v>29677</v>
-      </c>
-      <c r="F38">
-        <v>4865</v>
-      </c>
-      <c r="G38">
-        <v>24812</v>
-      </c>
-      <c r="H38">
-        <v>1371</v>
-      </c>
-      <c r="I38">
-        <v>5535</v>
-      </c>
-      <c r="J38" s="2">
-        <f t="shared" si="0"/>
-        <v>0.16393166425177746</v>
-      </c>
-      <c r="K38" s="2">
-        <f t="shared" si="1"/>
-        <v>0.83606833574822248</v>
-      </c>
-      <c r="L38" s="2">
-        <f t="shared" si="2"/>
-        <v>5.5255521521844271E-2</v>
-      </c>
-      <c r="M38" s="2">
-        <f t="shared" si="3"/>
-        <v>0.2230775431242947</v>
+      <c r="B38" s="6">
+        <f>AVERAGE(B32:B37)</f>
+        <v>0.1478188</v>
+      </c>
+      <c r="C38" s="6">
+        <f t="shared" ref="C38:M38" si="7">AVERAGE(C32:C37)</f>
+        <v>0.15239159999999999</v>
+      </c>
+      <c r="D38" s="7">
+        <f t="shared" si="7"/>
+        <v>0.27631666666666671</v>
+      </c>
+      <c r="E38" s="6">
+        <f t="shared" si="7"/>
+        <v>42007</v>
+      </c>
+      <c r="F38" s="8">
+        <f t="shared" si="7"/>
+        <v>4904.5</v>
+      </c>
+      <c r="G38" s="8">
+        <f t="shared" si="7"/>
+        <v>37102.5</v>
+      </c>
+      <c r="H38" s="8">
+        <f t="shared" si="7"/>
+        <v>1019.3333333333334</v>
+      </c>
+      <c r="I38" s="8">
+        <f t="shared" si="7"/>
+        <v>8989.8333333333339</v>
+      </c>
+      <c r="J38" s="7">
+        <f t="shared" si="7"/>
+        <v>0.11968186763559924</v>
+      </c>
+      <c r="K38" s="7">
+        <f t="shared" si="7"/>
+        <v>0.88031813236440071</v>
+      </c>
+      <c r="L38" s="7">
+        <f t="shared" si="7"/>
+        <v>2.7664175813475356E-2</v>
+      </c>
+      <c r="M38" s="7">
+        <f t="shared" si="7"/>
+        <v>0.24281070377665162</v>
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39">
-        <v>0.33652700000000002</v>
-      </c>
-      <c r="C39">
-        <v>0.33783200000000002</v>
-      </c>
-      <c r="D39" s="2">
-        <v>0.47549999999999998</v>
-      </c>
-      <c r="E39">
-        <v>23706</v>
-      </c>
-      <c r="F39">
-        <v>5706</v>
-      </c>
-      <c r="G39">
-        <v>18000</v>
-      </c>
-      <c r="H39">
-        <v>1090</v>
-      </c>
-      <c r="I39">
-        <v>4161</v>
-      </c>
-      <c r="J39" s="2">
-        <f t="shared" si="0"/>
-        <v>0.24069855732725892</v>
-      </c>
-      <c r="K39" s="2">
-        <f t="shared" si="1"/>
-        <v>0.75930144267274113</v>
-      </c>
-      <c r="L39" s="2">
-        <f t="shared" si="2"/>
-        <v>6.0555555555555557E-2</v>
-      </c>
-      <c r="M39" s="2">
-        <f t="shared" si="3"/>
-        <v>0.23116666666666666</v>
-      </c>
+      <c r="D39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
     </row>
     <row r="40" spans="1:13" s="3" customFormat="1">
       <c r="A40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
+      <c r="I40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="J41" s="2" t="e">
-        <f t="shared" ref="J41:J47" si="4">F41/E41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K41" s="2" t="e">
-        <f t="shared" ref="K41:K47" si="5">G41/E41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L41" s="2" t="e">
-        <f t="shared" ref="L41:L47" si="6">H41/G41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M41" s="2" t="e">
-        <f t="shared" ref="M41:M47" si="7">I41/G41</f>
-        <v>#DIV/0!</v>
+      <c r="B41">
+        <v>0.201206</v>
+      </c>
+      <c r="C41">
+        <v>0.20352300000000001</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.4027</v>
+      </c>
+      <c r="E41">
+        <v>26020</v>
+      </c>
+      <c r="F41">
+        <v>4844</v>
+      </c>
+      <c r="G41">
+        <v>21176</v>
+      </c>
+      <c r="H41">
+        <v>1212</v>
+      </c>
+      <c r="I41">
+        <v>5199</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18616448885472714</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" si="1"/>
+        <v>0.81383551114527286</v>
+      </c>
+      <c r="L41" s="2">
+        <f t="shared" si="2"/>
+        <v>5.723460521344919E-2</v>
+      </c>
+      <c r="M41" s="2">
+        <f t="shared" si="3"/>
+        <v>0.24551378919531544</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="J42" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K42" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L42" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M42" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="B42">
+        <v>0.316689</v>
+      </c>
+      <c r="C42">
+        <v>0.32125799999999999</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="E42">
+        <v>35287</v>
+      </c>
+      <c r="F42">
+        <v>3590</v>
+      </c>
+      <c r="G42">
+        <v>31697</v>
+      </c>
+      <c r="H42">
+        <v>1665</v>
+      </c>
+      <c r="I42">
+        <v>7097</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10173718366537252</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="1"/>
+        <v>0.89826281633462746</v>
+      </c>
+      <c r="L42" s="2">
+        <f t="shared" si="2"/>
+        <v>5.2528630469760543E-2</v>
+      </c>
+      <c r="M42" s="2">
+        <f t="shared" si="3"/>
+        <v>0.22390131558191628</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="J43" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K43" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L43" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M43" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="B43">
+        <v>0.49959500000000001</v>
+      </c>
+      <c r="C43">
+        <v>0.55548699999999995</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.28370000000000001</v>
+      </c>
+      <c r="E43">
+        <v>31969</v>
+      </c>
+      <c r="F43">
+        <v>3450</v>
+      </c>
+      <c r="G43">
+        <v>28519</v>
+      </c>
+      <c r="H43">
+        <v>1366</v>
+      </c>
+      <c r="I43">
+        <v>6683</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10791704463699209</v>
+      </c>
+      <c r="K43" s="2">
+        <f t="shared" si="1"/>
+        <v>0.89208295536300797</v>
+      </c>
+      <c r="L43" s="2">
+        <f t="shared" si="2"/>
+        <v>4.7897892632981519E-2</v>
+      </c>
+      <c r="M43" s="2">
+        <f t="shared" si="3"/>
+        <v>0.23433500473368632</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="J44" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K44" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L44" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M44" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="B44">
+        <v>0.14201</v>
+      </c>
+      <c r="C44">
+        <v>0.147228</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.25430000000000003</v>
+      </c>
+      <c r="E44">
+        <v>36389</v>
+      </c>
+      <c r="F44">
+        <v>3020</v>
+      </c>
+      <c r="G44">
+        <v>33369</v>
+      </c>
+      <c r="H44">
+        <v>1533</v>
+      </c>
+      <c r="I44">
+        <v>7323</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="0"/>
+        <v>8.2992113001181672E-2</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" si="1"/>
+        <v>0.9170078869988183</v>
+      </c>
+      <c r="L44" s="2">
+        <f t="shared" si="2"/>
+        <v>4.5940843297671494E-2</v>
+      </c>
+      <c r="M44" s="2">
+        <f t="shared" si="3"/>
+        <v>0.21945518295423896</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="J45" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K45" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L45" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M45" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>0.54125000000000001</v>
+      </c>
+      <c r="C45">
+        <v>0.59477599999999997</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.2276</v>
+      </c>
+      <c r="E45">
+        <v>38628</v>
+      </c>
+      <c r="F45">
+        <v>3365</v>
+      </c>
+      <c r="G45">
+        <v>35263</v>
+      </c>
+      <c r="H45">
+        <v>1660</v>
+      </c>
+      <c r="I45">
+        <v>7713</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="0"/>
+        <v>8.7112975044009527E-2</v>
+      </c>
+      <c r="K45" s="2">
+        <f t="shared" si="1"/>
+        <v>0.9128870249559905</v>
+      </c>
+      <c r="L45" s="2">
+        <f t="shared" si="2"/>
+        <v>4.7074837648526782E-2</v>
+      </c>
+      <c r="M45" s="2">
+        <f t="shared" si="3"/>
+        <v>0.21872784505005247</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="J46" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K46" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L46" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M46" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>17</v>
+      </c>
+      <c r="B46">
+        <v>0.13164100000000001</v>
+      </c>
+      <c r="C46">
+        <v>0.14493</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.29289999999999999</v>
+      </c>
+      <c r="E46">
+        <v>29677</v>
+      </c>
+      <c r="F46">
+        <v>4865</v>
+      </c>
+      <c r="G46">
+        <v>24812</v>
+      </c>
+      <c r="H46">
+        <v>1371</v>
+      </c>
+      <c r="I46">
+        <v>5535</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16393166425177746</v>
+      </c>
+      <c r="K46" s="2">
+        <f t="shared" si="1"/>
+        <v>0.83606833574822248</v>
+      </c>
+      <c r="L46" s="2">
+        <f t="shared" si="2"/>
+        <v>5.5255521521844271E-2</v>
+      </c>
+      <c r="M46" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2230775431242947</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="J47" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K47" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L47" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M47" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>18</v>
+      </c>
+      <c r="B47">
+        <v>0.33652700000000002</v>
+      </c>
+      <c r="C47">
+        <v>0.33783200000000002</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.47549999999999998</v>
+      </c>
+      <c r="E47">
+        <v>23706</v>
+      </c>
+      <c r="F47">
+        <v>5706</v>
+      </c>
+      <c r="G47">
+        <v>18000</v>
+      </c>
+      <c r="H47">
+        <v>1090</v>
+      </c>
+      <c r="I47">
+        <v>4161</v>
+      </c>
+      <c r="J47" s="2">
+        <f t="shared" si="0"/>
+        <v>0.24069855732725892</v>
+      </c>
+      <c r="K47" s="2">
+        <f t="shared" si="1"/>
+        <v>0.75930144267274113</v>
+      </c>
+      <c r="L47" s="2">
+        <f t="shared" si="2"/>
+        <v>6.0555555555555557E-2</v>
+      </c>
+      <c r="M47" s="2">
+        <f t="shared" si="3"/>
+        <v>0.23116666666666666</v>
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" t="s">
-        <v>31</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
+      <c r="B48" s="6">
+        <f>AVERAGE(B41:B47)</f>
+        <v>0.30984542857142855</v>
+      </c>
+      <c r="C48" s="6">
+        <f t="shared" ref="C48:M48" si="8">AVERAGE(C41:C47)</f>
+        <v>0.32929057142857138</v>
+      </c>
+      <c r="D48" s="7">
+        <f t="shared" si="8"/>
+        <v>0.31938571428571427</v>
+      </c>
+      <c r="E48" s="6">
+        <f t="shared" si="8"/>
+        <v>31668</v>
+      </c>
+      <c r="F48" s="6">
+        <f t="shared" si="8"/>
+        <v>4120</v>
+      </c>
+      <c r="G48" s="6">
+        <f t="shared" si="8"/>
+        <v>27548</v>
+      </c>
+      <c r="H48" s="8">
+        <f t="shared" si="8"/>
+        <v>1413.8571428571429</v>
+      </c>
+      <c r="I48" s="8">
+        <f t="shared" si="8"/>
+        <v>6244.4285714285716</v>
+      </c>
+      <c r="J48" s="7">
+        <f t="shared" si="8"/>
+        <v>0.13865057525447419</v>
+      </c>
+      <c r="K48" s="7">
+        <f t="shared" si="8"/>
+        <v>0.86134942474552567</v>
+      </c>
+      <c r="L48" s="7">
+        <f t="shared" si="8"/>
+        <v>5.235541233425562E-2</v>
+      </c>
+      <c r="M48" s="7">
+        <f t="shared" si="8"/>
+        <v>0.22802533532945296</v>
+      </c>
     </row>
     <row r="49" spans="4:13">
       <c r="D49" s="2"/>
@@ -2122,7 +2850,6 @@
       <c r="M53" s="2"/>
     </row>
     <row r="54" spans="4:13">
-      <c r="D54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -2140,15 +2867,12 @@
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="4:13">
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
